--- a/Alex_F/Исследование запаха Уксус Фатькин А.Ю..xlsx
+++ b/Alex_F/Исследование запаха Уксус Фатькин А.Ю..xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\3.Бизнес\Job\Центр Алмазова\НИР\НИР 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\5.Programming\OdorCalculator\Alex_F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122D9048-42F2-4B2B-A2FB-FD9F745D67EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D7A3FD-16A8-4724-BF56-B086E00186B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27084" yWindow="-4416" windowWidth="18876" windowHeight="15384" tabRatio="810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-3804" windowWidth="20064" windowHeight="16740" tabRatio="810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Уксус 0,25" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
   <si>
     <t>№</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>55 55 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,6 +692,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1285,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E1EFB3-1F9E-4C21-BFE0-720506402944}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1299,7 +1311,7 @@
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="15.77734375" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="11.44140625" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.77734375" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="24.88671875" customWidth="1"/>
     <col min="11" max="11" width="23.77734375" customWidth="1"/>
   </cols>
@@ -1388,8 +1400,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="40">
-        <v>1</v>
+      <c r="A4" s="40" t="s">
+        <v>87</v>
       </c>
       <c r="B4" s="40">
         <v>10000</v>
@@ -1400,7 +1412,7 @@
       </c>
       <c r="D4" s="52" t="str">
         <f>_xlfn.CONCAT(A3,"&gt;",A4)</f>
-        <v>0&gt;1</v>
+        <v xml:space="preserve">0&gt; </v>
       </c>
       <c r="E4" s="48">
         <f t="shared" ref="E4:E21" si="1">(B3-B4)/B3</f>
@@ -1424,7 +1436,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="51"/>
     </row>
-    <row r="5" spans="1:11" ht="21" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="40">
         <v>2</v>
       </c>
@@ -1437,7 +1449,7 @@
       </c>
       <c r="D5" s="52" t="str">
         <f t="shared" ref="D5:D21" si="4">_xlfn.CONCAT(A4,"&gt;",A5)</f>
-        <v>1&gt;2</v>
+        <v xml:space="preserve"> &gt;2</v>
       </c>
       <c r="E5" s="48">
         <f t="shared" si="1"/>
@@ -1455,7 +1467,7 @@
       <c r="J5" s="49"/>
       <c r="K5" s="51"/>
     </row>
-    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="21" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A6" s="40">
         <v>3</v>
       </c>
@@ -2111,7 +2123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E49BD4-F009-4EF7-A2AB-515B7323AE10}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -2922,7 +2934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F292F619-F4D3-48F0-960C-27A36B957778}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -3724,7 +3736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E49A6B-C2E9-4A1E-8928-FF51D108F1AC}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -4524,7 +4536,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H3:H6"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4916,10 +4928,10 @@
       <c r="A17" s="1">
         <v>4</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="65">
         <v>1</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
